--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.91686566666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N2">
-        <v>83.750597</v>
+        <v>92.249425</v>
       </c>
       <c r="O2">
-        <v>0.7394739524872079</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P2">
-        <v>0.7394739524872082</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q2">
-        <v>208.9478290276884</v>
+        <v>218.3997141924833</v>
       </c>
       <c r="R2">
-        <v>1880.530461249195</v>
+        <v>1965.59742773235</v>
       </c>
       <c r="S2">
-        <v>0.2834665327784348</v>
+        <v>0.3105581531344049</v>
       </c>
       <c r="T2">
-        <v>0.2834665327784349</v>
+        <v>0.3105581531344051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.775467</v>
       </c>
       <c r="O3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P3">
-        <v>0.1304596429603279</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q3">
-        <v>36.86304173473833</v>
+        <v>34.98079006845266</v>
       </c>
       <c r="R3">
-        <v>331.767375612645</v>
+        <v>314.827110616074</v>
       </c>
       <c r="S3">
-        <v>0.0500097975501259</v>
+        <v>0.04974168395324248</v>
       </c>
       <c r="T3">
-        <v>0.0500097975501259</v>
+        <v>0.04974168395324251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +691,22 @@
         <v>0.131706</v>
       </c>
       <c r="O4">
-        <v>0.001162895070303561</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P4">
-        <v>0.001162895070303561</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q4">
-        <v>0.32859088479</v>
+        <v>0.311812813548</v>
       </c>
       <c r="R4">
-        <v>2.95731796311</v>
+        <v>2.806315321932</v>
       </c>
       <c r="S4">
-        <v>0.000445778830282446</v>
+        <v>0.0004433889112774408</v>
       </c>
       <c r="T4">
-        <v>0.0004457788302824461</v>
+        <v>0.0004433889112774411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H5">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.804131333333333</v>
+        <v>2.297296</v>
       </c>
       <c r="N5">
-        <v>14.412394</v>
+        <v>6.891888</v>
       </c>
       <c r="O5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P5">
-        <v>0.1272538983332014</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q5">
-        <v>35.95721756337667</v>
+        <v>16.316485110304</v>
       </c>
       <c r="R5">
-        <v>323.61495807039</v>
+        <v>146.848365992736</v>
       </c>
       <c r="S5">
-        <v>0.04878092219708854</v>
+        <v>0.02320157560753541</v>
       </c>
       <c r="T5">
-        <v>0.04878092219708855</v>
+        <v>0.02320157560753543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H6">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I6">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J6">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06227666666666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N6">
-        <v>0.18683</v>
+        <v>0.261036</v>
       </c>
       <c r="O6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P6">
-        <v>0.001649611148959154</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q6">
-        <v>0.4661187417833333</v>
+        <v>0.618000467688</v>
       </c>
       <c r="R6">
-        <v>4.19506867605</v>
+        <v>5.562004209192</v>
       </c>
       <c r="S6">
-        <v>0.0006323543260114906</v>
+        <v>0.0008787790066072771</v>
       </c>
       <c r="T6">
-        <v>0.0006323543260114908</v>
+        <v>0.0008787790066072778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.299809999999999</v>
+        <v>7.102474</v>
       </c>
       <c r="H7">
-        <v>24.89943</v>
+        <v>21.307422</v>
       </c>
       <c r="I7">
-        <v>0.4250850731647057</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J7">
-        <v>0.4250850731647057</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>27.91686566666667</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N7">
-        <v>83.750597</v>
+        <v>0.106456</v>
       </c>
       <c r="O7">
-        <v>0.7394739524872079</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P7">
-        <v>0.7394739524872082</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q7">
-        <v>231.7046808288566</v>
+        <v>0.2520336573813333</v>
       </c>
       <c r="R7">
-        <v>2085.34212745971</v>
+        <v>2.268302916432</v>
       </c>
       <c r="S7">
-        <v>0.3143393391964189</v>
+        <v>0.0003583846593090007</v>
       </c>
       <c r="T7">
-        <v>0.314339339196419</v>
+        <v>0.0003583846593090008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
         <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.925155666666666</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N8">
-        <v>14.775467</v>
+        <v>92.249425</v>
       </c>
       <c r="O8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P8">
-        <v>0.1304596429603279</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q8">
-        <v>40.87785625375665</v>
+        <v>255.2175667030834</v>
       </c>
       <c r="R8">
-        <v>367.9007062838099</v>
+        <v>2296.95810032775</v>
       </c>
       <c r="S8">
-        <v>0.05545644687283236</v>
+        <v>0.3629120873890514</v>
       </c>
       <c r="T8">
-        <v>0.05545644687283237</v>
+        <v>0.3629120873890516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
         <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.043902</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N9">
-        <v>0.131706</v>
+        <v>14.775467</v>
       </c>
       <c r="O9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P9">
-        <v>0.001162895070303561</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q9">
-        <v>0.36437825862</v>
+        <v>40.87785625375667</v>
       </c>
       <c r="R9">
-        <v>3.27940432758</v>
+        <v>367.90070628381</v>
       </c>
       <c r="S9">
-        <v>0.0004943293360428647</v>
+        <v>0.05812714356884115</v>
       </c>
       <c r="T9">
-        <v>0.0004943293360428649</v>
+        <v>0.0581271435688412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H10">
         <v>24.89943</v>
       </c>
       <c r="I10">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J10">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.804131333333333</v>
+        <v>0.043902</v>
       </c>
       <c r="N10">
-        <v>14.412394</v>
+        <v>0.131706</v>
       </c>
       <c r="O10">
-        <v>0.1272538983332014</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P10">
-        <v>0.1272538983332014</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q10">
-        <v>39.87337728171333</v>
+        <v>0.36437825862</v>
       </c>
       <c r="R10">
-        <v>358.86039553542</v>
+        <v>3.27940432758</v>
       </c>
       <c r="S10">
-        <v>0.05409373268346293</v>
+        <v>0.0005181354721903404</v>
       </c>
       <c r="T10">
-        <v>0.05409373268346294</v>
+        <v>0.0005181354721903408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H11">
         <v>24.89943</v>
       </c>
       <c r="I11">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J11">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06227666666666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N11">
-        <v>0.18683</v>
+        <v>6.891888</v>
       </c>
       <c r="O11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P11">
-        <v>0.001649611148959154</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q11">
-        <v>0.5168845007666666</v>
+        <v>19.06712031376</v>
       </c>
       <c r="R11">
-        <v>4.6519605069</v>
+        <v>171.60408282384</v>
       </c>
       <c r="S11">
-        <v>0.000701225075948616</v>
+        <v>0.02711290027153616</v>
       </c>
       <c r="T11">
-        <v>0.0007012250759486163</v>
+        <v>0.02711290027153618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.493317</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H12">
-        <v>1.479951</v>
+        <v>24.89943</v>
       </c>
       <c r="I12">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J12">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>27.91686566666667</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N12">
-        <v>83.750597</v>
+        <v>0.261036</v>
       </c>
       <c r="O12">
-        <v>0.7394739524872079</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P12">
-        <v>0.7394739524872082</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q12">
-        <v>13.771864420083</v>
+        <v>0.72218306772</v>
       </c>
       <c r="R12">
-        <v>123.946779780747</v>
+        <v>6.49964760948</v>
       </c>
       <c r="S12">
-        <v>0.01868343248753403</v>
+        <v>0.001026923686989793</v>
       </c>
       <c r="T12">
-        <v>0.01868343248753403</v>
+        <v>0.001026923686989794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.493317</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H13">
-        <v>1.479951</v>
+        <v>24.89943</v>
       </c>
       <c r="I13">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J13">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.925155666666666</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N13">
-        <v>14.775467</v>
+        <v>0.106456</v>
       </c>
       <c r="O13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P13">
-        <v>0.1304596429603279</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q13">
-        <v>2.429663018013</v>
+        <v>0.2945215244533333</v>
       </c>
       <c r="R13">
-        <v>21.866967162117</v>
+        <v>2.65069372008</v>
       </c>
       <c r="S13">
-        <v>0.003296172804192511</v>
+        <v>0.0004188011922577171</v>
       </c>
       <c r="T13">
-        <v>0.003296172804192512</v>
+        <v>0.0004188011922577174</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H14">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I14">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J14">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.043902</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N14">
-        <v>0.131706</v>
+        <v>92.249425</v>
       </c>
       <c r="O14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P14">
-        <v>0.001162895070303561</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q14">
-        <v>0.021657602934</v>
+        <v>7.858400517794443</v>
       </c>
       <c r="R14">
-        <v>0.194918426406</v>
+        <v>70.72560466015</v>
       </c>
       <c r="S14">
-        <v>2.93815238021904E-05</v>
+        <v>0.01117442099418593</v>
       </c>
       <c r="T14">
-        <v>2.938152380219041E-05</v>
+        <v>0.01117442099418594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H15">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I15">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J15">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.804131333333333</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N15">
-        <v>14.412394</v>
+        <v>14.775467</v>
       </c>
       <c r="O15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P15">
-        <v>0.1272538983332014</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q15">
-        <v>2.369959656966</v>
+        <v>1.258669498736222</v>
       </c>
       <c r="R15">
-        <v>21.329636912694</v>
+        <v>11.328025488626</v>
       </c>
       <c r="S15">
-        <v>0.003215176965039908</v>
+        <v>0.001789792062592276</v>
       </c>
       <c r="T15">
-        <v>0.003215176965039909</v>
+        <v>0.001789792062592277</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H16">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I16">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J16">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,60 +1429,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.06227666666666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N16">
-        <v>0.18683</v>
+        <v>0.131706</v>
       </c>
       <c r="O16">
-        <v>0.001649611148959154</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P16">
-        <v>0.001649611148959154</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q16">
-        <v>0.03072213837</v>
+        <v>0.011219565852</v>
       </c>
       <c r="R16">
-        <v>0.27649924533</v>
+        <v>0.100976092668</v>
       </c>
       <c r="S16">
-        <v>4.167881563454386E-05</v>
+        <v>1.595390205912126E-05</v>
       </c>
       <c r="T16">
-        <v>4.167881563454387E-05</v>
+        <v>1.595390205912128E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H17">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I17">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J17">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.91686566666667</v>
+        <v>2.297296</v>
       </c>
       <c r="N17">
-        <v>83.750597</v>
+        <v>6.891888</v>
       </c>
       <c r="O17">
-        <v>0.7394739524872079</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P17">
-        <v>0.7394739524872082</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q17">
-        <v>57.00964554894465</v>
+        <v>0.5870954342293332</v>
       </c>
       <c r="R17">
-        <v>513.0868099405019</v>
+        <v>5.283858908063999</v>
       </c>
       <c r="S17">
-        <v>0.07734144276055346</v>
+        <v>0.0008348329320944614</v>
       </c>
       <c r="T17">
-        <v>0.07734144276055349</v>
+        <v>0.000834832932094462</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H18">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I18">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J18">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>4.925155666666666</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N18">
-        <v>14.775467</v>
+        <v>0.261036</v>
       </c>
       <c r="O18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P18">
-        <v>0.1304596429603279</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q18">
-        <v>10.05776874032466</v>
+        <v>0.02223672871199999</v>
       </c>
       <c r="R18">
-        <v>90.51991866292198</v>
+        <v>0.200130558408</v>
       </c>
       <c r="S18">
-        <v>0.0136447497232879</v>
+        <v>3.161999284698327E-05</v>
       </c>
       <c r="T18">
-        <v>0.0136447497232879</v>
+        <v>3.161999284698329E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H19">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I19">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J19">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.043902</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N19">
-        <v>0.131706</v>
+        <v>0.106456</v>
       </c>
       <c r="O19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P19">
-        <v>0.001162895070303561</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q19">
-        <v>0.08965324004399998</v>
+        <v>0.009068608129777778</v>
       </c>
       <c r="R19">
-        <v>0.8068791603959998</v>
+        <v>0.081617473168</v>
       </c>
       <c r="S19">
-        <v>0.0001216269784945109</v>
+        <v>1.289530163854201E-05</v>
       </c>
       <c r="T19">
-        <v>0.000121626978494511</v>
+        <v>1.289530163854201E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H20">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I20">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J20">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.804131333333333</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N20">
-        <v>14.412394</v>
+        <v>92.249425</v>
       </c>
       <c r="O20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P20">
-        <v>0.1272538983332014</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q20">
-        <v>9.81062228668933</v>
+        <v>42.82358732624722</v>
       </c>
       <c r="R20">
-        <v>88.29560058020398</v>
+        <v>385.412285936225</v>
       </c>
       <c r="S20">
-        <v>0.01330946149068698</v>
+        <v>0.06089391755754855</v>
       </c>
       <c r="T20">
-        <v>0.01330946149068698</v>
+        <v>0.06089391755754859</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H21">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I21">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J21">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.06227666666666667</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N21">
-        <v>0.18683</v>
+        <v>14.775467</v>
       </c>
       <c r="O21">
-        <v>0.001649611148959154</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P21">
-        <v>0.001649611148959154</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q21">
-        <v>0.1271765510866666</v>
+        <v>6.858996696842111</v>
       </c>
       <c r="R21">
-        <v>1.14458895978</v>
+        <v>61.730970271579</v>
       </c>
       <c r="S21">
-        <v>0.0001725325223765772</v>
+        <v>0.009753297317270856</v>
       </c>
       <c r="T21">
-        <v>0.0001725325223765773</v>
+        <v>0.009753297317270863</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H22">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I22">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J22">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>27.91686566666667</v>
+        <v>0.043902</v>
       </c>
       <c r="N22">
-        <v>83.750597</v>
+        <v>0.131706</v>
       </c>
       <c r="O22">
-        <v>0.7394739524872079</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P22">
-        <v>0.7394739524872082</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q22">
-        <v>25.90646050254734</v>
+        <v>0.061139930058</v>
       </c>
       <c r="R22">
-        <v>233.158144522926</v>
+        <v>0.5502593705219999</v>
       </c>
       <c r="S22">
-        <v>0.0351456847835707</v>
+        <v>8.693923355982422E-05</v>
       </c>
       <c r="T22">
-        <v>0.03514568478357072</v>
+        <v>8.69392335598243E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H23">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I23">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J23">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.925155666666666</v>
+        <v>2.297296</v>
       </c>
       <c r="N23">
-        <v>14.775467</v>
+        <v>6.891888</v>
       </c>
       <c r="O23">
-        <v>0.1304596429603279</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P23">
-        <v>0.1304596429603279</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q23">
-        <v>4.570475506487333</v>
+        <v>3.199319319450666</v>
       </c>
       <c r="R23">
-        <v>41.134279558386</v>
+        <v>28.793873875056</v>
       </c>
       <c r="S23">
-        <v>0.006200480048065222</v>
+        <v>0.004549340656463259</v>
       </c>
       <c r="T23">
-        <v>0.006200480048065224</v>
+        <v>0.004549340656463262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H24">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I24">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J24">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.043902</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N24">
-        <v>0.131706</v>
+        <v>0.261036</v>
       </c>
       <c r="O24">
-        <v>0.001162895070303561</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P24">
-        <v>0.001162895070303561</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q24">
-        <v>0.040740441372</v>
+        <v>0.121176884748</v>
       </c>
       <c r="R24">
-        <v>0.366663972348</v>
+        <v>1.090591962732</v>
       </c>
       <c r="S24">
-        <v>5.527002464358508E-05</v>
+        <v>0.0001723100676622347</v>
       </c>
       <c r="T24">
-        <v>5.52700246435851E-05</v>
+        <v>0.0001723100676622348</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H25">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I25">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J25">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>4.804131333333333</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N25">
-        <v>14.412394</v>
+        <v>0.106456</v>
       </c>
       <c r="O25">
-        <v>0.1272538983332014</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P25">
-        <v>0.1272538983332014</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q25">
-        <v>4.458166619494667</v>
+        <v>0.04941849569688889</v>
       </c>
       <c r="R25">
-        <v>40.123499575452</v>
+        <v>0.444766461272</v>
       </c>
       <c r="S25">
-        <v>0.00604811756148587</v>
+        <v>7.027168882089388E-05</v>
       </c>
       <c r="T25">
-        <v>0.006048117561485871</v>
+        <v>7.027168882089392E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H26">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I26">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J26">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.06227666666666667</v>
+        <v>30.74980833333333</v>
       </c>
       <c r="N26">
-        <v>0.18683</v>
+        <v>92.249425</v>
       </c>
       <c r="O26">
-        <v>0.001649611148959154</v>
+        <v>0.8062634835844341</v>
       </c>
       <c r="P26">
-        <v>0.001649611148959154</v>
+        <v>0.8062634835844344</v>
       </c>
       <c r="Q26">
-        <v>0.05779187479333334</v>
+        <v>35.05390000549445</v>
       </c>
       <c r="R26">
-        <v>0.5201268731400001</v>
+        <v>315.48510004945</v>
       </c>
       <c r="S26">
-        <v>7.840264455803837E-05</v>
+        <v>0.04984564419470808</v>
       </c>
       <c r="T26">
-        <v>7.84026445580384E-05</v>
+        <v>0.04984564419470812</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,25 +2084,25 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H27">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I27">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J27">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.91686566666667</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N27">
-        <v>83.750597</v>
+        <v>14.775467</v>
       </c>
       <c r="O27">
-        <v>0.7394739524872079</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="P27">
-        <v>0.7394739524872082</v>
+        <v>0.1291381436253597</v>
       </c>
       <c r="Q27">
-        <v>7.737894463645888</v>
+        <v>5.614536272204222</v>
       </c>
       <c r="R27">
-        <v>69.641050172813</v>
+        <v>50.530826449838</v>
       </c>
       <c r="S27">
-        <v>0.0104975204806961</v>
+        <v>0.007983710152043232</v>
       </c>
       <c r="T27">
-        <v>0.01049752048069611</v>
+        <v>0.007983710152043239</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H28">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I28">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J28">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>4.925155666666666</v>
+        <v>0.043902</v>
       </c>
       <c r="N28">
-        <v>14.775467</v>
+        <v>0.131706</v>
       </c>
       <c r="O28">
-        <v>0.1304596429603279</v>
+        <v>0.00115111544997675</v>
       </c>
       <c r="P28">
-        <v>0.1304596429603279</v>
+        <v>0.001151115449976751</v>
       </c>
       <c r="Q28">
-        <v>1.365136588782555</v>
+        <v>0.050047021476</v>
       </c>
       <c r="R28">
-        <v>12.286229299043</v>
+        <v>0.450423193284</v>
       </c>
       <c r="S28">
-        <v>0.001851995961824002</v>
+        <v>7.116543451959968E-05</v>
       </c>
       <c r="T28">
-        <v>0.001851995961824003</v>
+        <v>7.116543451959975E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H29">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I29">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J29">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.043902</v>
+        <v>2.297296</v>
       </c>
       <c r="N29">
-        <v>0.131706</v>
+        <v>6.891888</v>
       </c>
       <c r="O29">
-        <v>0.001162895070303561</v>
+        <v>0.06023536328116688</v>
       </c>
       <c r="P29">
-        <v>0.001162895070303561</v>
+        <v>0.06023536328116691</v>
       </c>
       <c r="Q29">
-        <v>0.012168595386</v>
+        <v>2.618851584181333</v>
       </c>
       <c r="R29">
-        <v>0.109517358474</v>
+        <v>23.569664257632</v>
       </c>
       <c r="S29">
-        <v>1.650837703796381E-05</v>
+        <v>0.003723932122913268</v>
       </c>
       <c r="T29">
-        <v>1.650837703796382E-05</v>
+        <v>0.003723932122913271</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,87 +2270,87 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H30">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I30">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J30">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>4.804131333333333</v>
+        <v>0.08701199999999999</v>
       </c>
       <c r="N30">
-        <v>14.412394</v>
+        <v>0.261036</v>
       </c>
       <c r="O30">
-        <v>0.1272538983332014</v>
+        <v>0.002281464569572616</v>
       </c>
       <c r="P30">
-        <v>0.1272538983332014</v>
+        <v>0.002281464569572617</v>
       </c>
       <c r="Q30">
-        <v>1.331591507825111</v>
+        <v>0.09919118565600001</v>
       </c>
       <c r="R30">
-        <v>11.984323570426</v>
+        <v>0.8927206709040001</v>
       </c>
       <c r="S30">
-        <v>0.001806487435437166</v>
+        <v>0.000141047031762093</v>
       </c>
       <c r="T30">
-        <v>0.001806487435437167</v>
+        <v>0.0001410470317620931</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.2771763333333333</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H31">
-        <v>0.831529</v>
+        <v>3.419914</v>
       </c>
       <c r="I31">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J31">
-        <v>0.01419593001942513</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.06227666666666667</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N31">
-        <v>0.18683</v>
+        <v>0.106456</v>
       </c>
       <c r="O31">
-        <v>0.001649611148959154</v>
+        <v>0.0009304294894896583</v>
       </c>
       <c r="P31">
-        <v>0.001649611148959154</v>
+        <v>0.0009304294894896586</v>
       </c>
       <c r="Q31">
-        <v>0.01726161811888889</v>
+        <v>0.04045226275377779</v>
       </c>
       <c r="R31">
-        <v>0.15535456307</v>
+        <v>0.364070364784</v>
       </c>
       <c r="S31">
-        <v>2.341776442988762E-05</v>
+        <v>5.752196177257304E-05</v>
       </c>
       <c r="T31">
-        <v>2.341776442988763E-05</v>
+        <v>5.752196177257308E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.248809</v>
+      </c>
+      <c r="H32">
+        <v>0.746427</v>
+      </c>
+      <c r="I32">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J32">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>30.74980833333333</v>
+      </c>
+      <c r="N32">
+        <v>92.249425</v>
+      </c>
+      <c r="O32">
+        <v>0.8062634835844341</v>
+      </c>
+      <c r="P32">
+        <v>0.8062634835844344</v>
+      </c>
+      <c r="Q32">
+        <v>7.650829061608333</v>
+      </c>
+      <c r="R32">
+        <v>68.85746155447499</v>
+      </c>
+      <c r="S32">
+        <v>0.01087926031453521</v>
+      </c>
+      <c r="T32">
+        <v>0.01087926031453522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.248809</v>
+      </c>
+      <c r="H33">
+        <v>0.746427</v>
+      </c>
+      <c r="I33">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J33">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.925155666666666</v>
+      </c>
+      <c r="N33">
+        <v>14.775467</v>
+      </c>
+      <c r="O33">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="P33">
+        <v>0.1291381436253597</v>
+      </c>
+      <c r="Q33">
+        <v>1.225423056267666</v>
+      </c>
+      <c r="R33">
+        <v>11.028807506409</v>
+      </c>
+      <c r="S33">
+        <v>0.001742516571369682</v>
+      </c>
+      <c r="T33">
+        <v>0.001742516571369683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.248809</v>
+      </c>
+      <c r="H34">
+        <v>0.746427</v>
+      </c>
+      <c r="I34">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J34">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.043902</v>
+      </c>
+      <c r="N34">
+        <v>0.131706</v>
+      </c>
+      <c r="O34">
+        <v>0.00115111544997675</v>
+      </c>
+      <c r="P34">
+        <v>0.001151115449976751</v>
+      </c>
+      <c r="Q34">
+        <v>0.010923212718</v>
+      </c>
+      <c r="R34">
+        <v>0.09830891446199999</v>
+      </c>
+      <c r="S34">
+        <v>1.553249637042371E-05</v>
+      </c>
+      <c r="T34">
+        <v>1.553249637042372E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.248809</v>
+      </c>
+      <c r="H35">
+        <v>0.746427</v>
+      </c>
+      <c r="I35">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J35">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.297296</v>
+      </c>
+      <c r="N35">
+        <v>6.891888</v>
+      </c>
+      <c r="O35">
+        <v>0.06023536328116688</v>
+      </c>
+      <c r="P35">
+        <v>0.06023536328116691</v>
+      </c>
+      <c r="Q35">
+        <v>0.5715879204639999</v>
+      </c>
+      <c r="R35">
+        <v>5.144291284175999</v>
+      </c>
+      <c r="S35">
+        <v>0.0008127816906243202</v>
+      </c>
+      <c r="T35">
+        <v>0.0008127816906243207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.248809</v>
+      </c>
+      <c r="H36">
+        <v>0.746427</v>
+      </c>
+      <c r="I36">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J36">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.08701199999999999</v>
+      </c>
+      <c r="N36">
+        <v>0.261036</v>
+      </c>
+      <c r="O36">
+        <v>0.002281464569572616</v>
+      </c>
+      <c r="P36">
+        <v>0.002281464569572617</v>
+      </c>
+      <c r="Q36">
+        <v>0.02164936870799999</v>
+      </c>
+      <c r="R36">
+        <v>0.194844318372</v>
+      </c>
+      <c r="S36">
+        <v>3.078478370423461E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.078478370423463E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.248809</v>
+      </c>
+      <c r="H37">
+        <v>0.746427</v>
+      </c>
+      <c r="I37">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J37">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.106456</v>
+      </c>
+      <c r="O37">
+        <v>0.0009304294894896583</v>
+      </c>
+      <c r="P37">
+        <v>0.0009304294894896586</v>
+      </c>
+      <c r="Q37">
+        <v>0.008829070301333333</v>
+      </c>
+      <c r="R37">
+        <v>0.07946163271199999</v>
+      </c>
+      <c r="S37">
+        <v>1.255468569093152E-05</v>
+      </c>
+      <c r="T37">
+        <v>1.255468569093153E-05</v>
       </c>
     </row>
   </sheetData>
